--- a/ThongTinHocVien.xlsx
+++ b/ThongTinHocVien.xlsx
@@ -397,119 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>STT</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Họ và Tên</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Mã học viên</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ngày sinh</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Hạng đào tạo</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Mã khoá học</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Đơn vị đào tạo</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Thời gian đào tạo</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Quãng đường đào tạo</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Thời gian thiếu</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Quãng đường thiếu</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Ghi chú</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Yêu cầu</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>NGUYỄN XUÂN THẮNG</v>
-      </c>
-      <c r="C2" t="str">
-        <v>52001-20221201-153754</v>
-      </c>
-      <c r="D2" t="str">
-        <v>1974-12-07</v>
-      </c>
-      <c r="E2" t="str">
-        <v>B2</v>
-      </c>
-      <c r="F2" t="str">
-        <v>52001K22B2037</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Trường CĐ Cơ điện-Xây dựng-Nông lâm Trung bộ</v>
-      </c>
-      <c r="H2">
-        <v>20.69</v>
-      </c>
-      <c r="I2">
-        <v>857.092</v>
-      </c>
-      <c r="L2" t="str">
-        <v xml:space="preserve">Thời gian nghỉ thiếu: 13.9667 phút </v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="str">
-        <v>NGUYỄN VĂN LƯU</v>
-      </c>
-      <c r="C3" t="str">
-        <v>52001-20221201-153700</v>
-      </c>
-      <c r="D3" t="str">
-        <v>1976-08-01</v>
-      </c>
-      <c r="E3" t="str">
-        <v>B2</v>
-      </c>
-      <c r="F3" t="str">
-        <v>52001K22B2037</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Trường CĐ Cơ điện-Xây dựng-Nông lâm Trung bộ</v>
-      </c>
-      <c r="H3">
-        <v>20.47</v>
-      </c>
-      <c r="I3">
-        <v>857.194</v>
-      </c>
-      <c r="L3" t="str">
-        <v xml:space="preserve">Thời gian nghỉ thiếu: 14.6333 phút </v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>